--- a/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001751</t>
+          <t>002145</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商信用增强债券A</t>
+          <t>诺安景鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001752</t>
+          <t>009513</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商信用增强债券C</t>
+          <t>创金合信同顺创业板精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002145</t>
+          <t>009514</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安景鑫灵活配置混合</t>
+          <t>创金合信同顺创业板精选股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009513</t>
+          <t>001751</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票A</t>
+          <t>华商信用增强债券A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009514</t>
+          <t>001752</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票C</t>
+          <t>华商信用增强债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>29.55</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>29.55</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.06</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -744,15 +834,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>55.59</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.58</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1068,4 +1069,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1353,4 +1354,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1362,7 +1363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,17 +1374,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1393,14 +1414,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.46</v>
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1409,14 +1452,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.34</v>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1425,14 +1490,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -1441,13 +1528,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1609,7 +1610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1620,17 +1621,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1640,14 +1661,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1656,14 +1699,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>000458</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大领先回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.46</v>
       </c>
     </row>
     <row r="4">
@@ -1672,14 +1737,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.34</v>
+          <t>001270</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1688,14 +1775,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.12</v>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1704,13 +1813,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300082-奥克股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002145</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安景鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.52</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009513</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信同顺创业板精选股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0181</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009514</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信同顺创业板精选股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+      <c r="D4" t="n">
+        <v>0.46</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001751</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商信用增强债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001752</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商信用增强债券C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>5</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -763,26 +649,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0964</t>
+          <t>0.0698</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -791,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004819</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.55</t>
+          <t>93.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0216</t>
+          <t>0.0254</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -829,36 +715,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001797</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华融新利灵活配置混合</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>55.59</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.0111</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>36.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001271</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +855,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -923,32 +885,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004818</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>93.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1239</t>
+          <t>0.0316</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -961,36 +923,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162202</t>
+          <t>005437</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰达宏利周期混合</t>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.87</t>
+          <t>93.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0897</t>
+          <t>0.0153</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -999,36 +961,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001672</t>
+          <t>001270</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保智慧生活股票</t>
+          <t>英大灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0867</t>
+          <t>0.0134</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1037,36 +999,74 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004819</t>
+          <t>001271</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
+          <t>英大灵活配置混合B</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>27.94</t>
+          <t>92.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0427</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +1364,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1415,32 +1415,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>004818</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>国寿安保目标策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.42</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0316</t>
+          <t>0.1239</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1453,36 +1453,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005437</t>
+          <t>162202</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达易百智能量化策略灵活配置混合A</t>
+          <t>泰达宏利周期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.44</t>
+          <t>87.87</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0897</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1491,36 +1491,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>001672</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>国寿安保智慧生活股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>89.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0134</t>
+          <t>0.0867</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1529,74 +1529,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001271</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>英大灵活配置混合B</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0427</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005438</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达易百智能量化策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.44</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,7 +1593,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1671,26 +1633,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36.45</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0698</t>
+          <t>0.0964</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1699,36 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>004819</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>国寿安保目标策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>29.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0254</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1737,112 +1699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001270</t>
+          <t>001797</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大灵活配置混合A</t>
+          <t>华融新利灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>55.59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
         <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001271</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>英大灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1856,128 +1742,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>